--- a/data/trans_dic/Q25_A_R3-Clase-trans_dic.xlsx
+++ b/data/trans_dic/Q25_A_R3-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.268227256626168</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2261154766772706</v>
+        <v>0.2261154766772704</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2633549679506643</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1590273143355443</v>
+        <v>0.165387770744367</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1481386685827929</v>
+        <v>0.1423134146433328</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1472742033696746</v>
+        <v>0.1421747927760189</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08448434732779456</v>
+        <v>0.08246239129768132</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1908096226755061</v>
+        <v>0.1877361442811284</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2394079459770964</v>
+        <v>0.2424250516109304</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1817209089150269</v>
+        <v>0.1676709826490874</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.146020718694589</v>
+        <v>0.14749240118808</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1910883385414531</v>
+        <v>0.1901711837472348</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2071439059981347</v>
+        <v>0.2063286023566435</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1773767536119636</v>
+        <v>0.1809013958492528</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1228334334470246</v>
+        <v>0.1223311637012051</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3324896315991424</v>
+        <v>0.3341470659841702</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3054090160678957</v>
+        <v>0.3136261951931865</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3241653424654948</v>
+        <v>0.3261917031647573</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2430790624829122</v>
+        <v>0.2517294175921579</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4841876451755789</v>
+        <v>0.4780619232943676</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5397938032865386</v>
+        <v>0.522544036607008</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.382188176693143</v>
+        <v>0.3845425213420488</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3261991758243624</v>
+        <v>0.3200190010894445</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3483639433522062</v>
+        <v>0.344858879575822</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.343578962185398</v>
+        <v>0.3497238752536253</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3083461025650195</v>
+        <v>0.3117146423102131</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2451493033655248</v>
+        <v>0.2440431113284182</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.2326914945099092</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1718929965422292</v>
+        <v>0.1718929965422291</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3799463845660702</v>
@@ -821,7 +821,7 @@
         <v>0.2770095500771963</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2819770565740495</v>
+        <v>0.2819770565740496</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3344326373550705</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2094934014782719</v>
+        <v>0.2180199904291834</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1831643486750144</v>
+        <v>0.1703283976505329</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1524647406563589</v>
+        <v>0.1460614817689238</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1088738942527388</v>
+        <v>0.1055187996710961</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.238361188311589</v>
+        <v>0.2426226768896104</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2321334928153592</v>
+        <v>0.2373650998557991</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1818055742986117</v>
+        <v>0.1728477929674788</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1859526076479214</v>
+        <v>0.1900183719009012</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2587426716403109</v>
+        <v>0.2499656315772601</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.224865422543143</v>
+        <v>0.2249036651568274</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.19169905425416</v>
+        <v>0.1851670868691901</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.160197393570881</v>
+        <v>0.156749080209647</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4234402636516141</v>
+        <v>0.4335568908148046</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3690986333815308</v>
+        <v>0.3693647466494732</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3361967883440146</v>
+        <v>0.3384676798606681</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2530408983545854</v>
+        <v>0.2506532104781392</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5478547981659049</v>
+        <v>0.5341659965284262</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.495431720567208</v>
+        <v>0.5000370640787339</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3936770277837522</v>
+        <v>0.3984874087095461</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4066952100349614</v>
+        <v>0.3904419767141054</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4279136233083128</v>
+        <v>0.432538190494328</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3835354936630226</v>
+        <v>0.3805191225515498</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3329577408674407</v>
+        <v>0.3240781532353073</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2805960024175256</v>
+        <v>0.2742175738104918</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.3362014900920939</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2364683882619706</v>
+        <v>0.2364683882619705</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2157888562188994</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1089987057115104</v>
+        <v>0.1060750911991906</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1950640306153268</v>
+        <v>0.1897655342306281</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1720125329404411</v>
+        <v>0.1697796540866225</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06476317559141406</v>
+        <v>0.06150969746568373</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2348671436987363</v>
+        <v>0.2391793011175815</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1576869787988862</v>
+        <v>0.1586876336228364</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1093415582132038</v>
+        <v>0.1105357696793527</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1003964517253032</v>
+        <v>0.09881372732916842</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1506423341838707</v>
+        <v>0.1498697563912796</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1998882178071984</v>
+        <v>0.2010055364034294</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1847900348261335</v>
+        <v>0.1882562181915538</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08478021174677905</v>
+        <v>0.08561364660541261</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2608615343126353</v>
+        <v>0.2589844527679371</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3311348831358926</v>
+        <v>0.3286245735406338</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3250418668707687</v>
+        <v>0.3209678741109733</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1824752117641547</v>
+        <v>0.1863502713047908</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6102931797544436</v>
+        <v>0.6144831477888032</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4789366826464148</v>
+        <v>0.467552818079101</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5546565996144729</v>
+        <v>0.5885833715917134</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4440827564902075</v>
+        <v>0.4293871593342686</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2971357963689921</v>
+        <v>0.2973271146916573</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3341430665173108</v>
+        <v>0.3325907367277016</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3322522520773786</v>
+        <v>0.3293967865974492</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2040500333901465</v>
+        <v>0.2068976749197374</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.3287878795770351</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.3105065560662407</v>
+        <v>0.3105065560662408</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2493295572781449</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1679238679719474</v>
+        <v>0.165426451201159</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2530715112120091</v>
+        <v>0.2565058167357512</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2075741715420791</v>
+        <v>0.2047760405934644</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1077082589399191</v>
+        <v>0.1072748374607358</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2879837051294224</v>
+        <v>0.2696197532286567</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2918898115664227</v>
+        <v>0.2980705085020496</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2372381169026083</v>
+        <v>0.2412815945237422</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2286871880774527</v>
+        <v>0.2215559534565995</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2045284850179618</v>
+        <v>0.2024372357076648</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2810405242611747</v>
+        <v>0.2835624908328792</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2330381519689596</v>
+        <v>0.2313822936595163</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1542641502763057</v>
+        <v>0.1537998709279383</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2649088087896589</v>
+        <v>0.2724843993508257</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3603532295917337</v>
+        <v>0.3622735101951601</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3155542284875683</v>
+        <v>0.3104682954776709</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2124228806865417</v>
+        <v>0.2148912170762349</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5249188980052274</v>
+        <v>0.5109912495354013</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4834485427990508</v>
+        <v>0.496946195817893</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4244461893929172</v>
+        <v>0.4301975819002486</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4130228640518303</v>
+        <v>0.4017441654824314</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.300390209913159</v>
+        <v>0.2991535654969179</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.369892876358183</v>
+        <v>0.3757939577555058</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3280111127807849</v>
+        <v>0.3266986248728161</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2429313189935837</v>
+        <v>0.2475258410556329</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1700963011716354</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1706933577104693</v>
+        <v>0.1706933577104692</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.4492906595124012</v>
@@ -1229,7 +1229,7 @@
         <v>0.3126595840947931</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3092829569711425</v>
+        <v>0.3092829569711424</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.3572941891097479</v>
@@ -1241,7 +1241,7 @@
         <v>0.2254784870810875</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2348951368870802</v>
+        <v>0.23489513688708</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.197652872495049</v>
+        <v>0.1953708502010669</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1444356483054492</v>
+        <v>0.1457617604961725</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.110667089285074</v>
+        <v>0.1084055585641189</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09523162081208805</v>
+        <v>0.1038418216554116</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2982049978492486</v>
+        <v>0.2841993234395611</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2149975014057296</v>
+        <v>0.2141102422663096</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2098608758135324</v>
+        <v>0.2137853423514452</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.22189955443703</v>
+        <v>0.2226063014509932</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2632987280874743</v>
+        <v>0.2592946038566768</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1926712889122155</v>
+        <v>0.1993956564984561</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1699421517132144</v>
+        <v>0.1700081334631431</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1775860278219664</v>
+        <v>0.1765506261146652</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4290033389023036</v>
+        <v>0.422848441919304</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.290691283759309</v>
+        <v>0.2891879869995311</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2497653182467021</v>
+        <v>0.2446474438156754</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2502591779673326</v>
+        <v>0.2577749526285669</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6189594636805409</v>
+        <v>0.6280401089199344</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.450810482183401</v>
+        <v>0.4516043720792665</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.424999854870353</v>
+        <v>0.4309752793235507</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4123524266472577</v>
+        <v>0.4165758559259334</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.462124740018153</v>
+        <v>0.4572288649295614</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3266521813263717</v>
+        <v>0.3192003539664239</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2953835762805475</v>
+        <v>0.2896013714176626</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3102227103563721</v>
+        <v>0.304457715753627</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3325067736703148</v>
+        <v>0.2840313893433167</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1603712108700077</v>
+        <v>0.2105520794531409</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1759928242134424</v>
+        <v>0.172904400945489</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.196384717698548</v>
+        <v>0.1820257824216654</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2694327228823487</v>
+        <v>0.2654187174650044</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2789900358745582</v>
+        <v>0.2704542184402587</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1147888756887286</v>
+        <v>0.1014678564787347</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2592367208477437</v>
+        <v>0.2553692993408891</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3028967552212078</v>
+        <v>0.2981110867407874</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2950776915275289</v>
+        <v>0.277911646656766</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1296074689260143</v>
+        <v>0.1352195083348759</v>
       </c>
     </row>
     <row r="21">
@@ -1441,31 +1441,31 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8555098340696932</v>
+        <v>0.8845575967175178</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4775806785072856</v>
+        <v>0.4763387790073437</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5151914003289145</v>
+        <v>0.5242776926750182</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5750262089302112</v>
+        <v>0.5657404777571096</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3478219099709238</v>
+        <v>0.353902526077857</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5248864563311681</v>
+        <v>0.5270452517597098</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5493029029373789</v>
+        <v>0.533994041345206</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.5746811779406713</v>
+        <v>0.5685445122925494</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3933236798870848</v>
+        <v>0.3955875499911596</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2037788640929923</v>
+        <v>0.204295172636502</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.233622780782563</v>
+        <v>0.2343413397403316</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2068965175451543</v>
+        <v>0.2031136499220758</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.12664800036874</v>
+        <v>0.1266833895561353</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3210724705095344</v>
+        <v>0.3119388067854633</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3138711498955573</v>
+        <v>0.3173871259490691</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2689999798286102</v>
+        <v>0.2694713006000528</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2302370448664961</v>
+        <v>0.2314615148340174</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.247494808502201</v>
+        <v>0.2482380871381854</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2722498453019762</v>
+        <v>0.271455949351269</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2339457487359623</v>
+        <v>0.2382209712624606</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1723717222339074</v>
+        <v>0.1733428567988722</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2744258194956857</v>
+        <v>0.2727042555086782</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2976004358509413</v>
+        <v>0.2984479517284522</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2706394286929741</v>
+        <v>0.2670454791690278</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.184472500270612</v>
+        <v>0.1889575134241943</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4430311212792322</v>
+        <v>0.4418790576799023</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4127338416429317</v>
+        <v>0.4167088502634277</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3599045266846018</v>
+        <v>0.3647175894641397</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.316005846546391</v>
+        <v>0.3152666841137565</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3085210126091672</v>
+        <v>0.3094295328715909</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3278529943382194</v>
+        <v>0.3244990420285405</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2893061257604759</v>
+        <v>0.289963545978342</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2234768968256891</v>
+        <v>0.2229776596561033</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>15193</v>
+        <v>15800</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16602</v>
+        <v>15949</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14924</v>
+        <v>14408</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10958</v>
+        <v>10696</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7264</v>
+        <v>7147</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>12724</v>
+        <v>12885</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12489</v>
+        <v>11523</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>10137</v>
+        <v>10240</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>25530</v>
+        <v>25407</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>34224</v>
+        <v>34090</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>30165</v>
+        <v>30764</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>24460</v>
+        <v>24360</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>31765</v>
+        <v>31923</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34227</v>
+        <v>35148</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>32850</v>
+        <v>33056</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>31529</v>
+        <v>32651</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>18432</v>
+        <v>18198</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>28690</v>
+        <v>27773</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>26266</v>
+        <v>26427</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>22646</v>
+        <v>22217</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>46542</v>
+        <v>46074</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>56766</v>
+        <v>57781</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>52438</v>
+        <v>53011</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>48817</v>
+        <v>48597</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16735</v>
+        <v>17416</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>17041</v>
+        <v>15846</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>12909</v>
+        <v>12366</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>11071</v>
+        <v>10730</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>9647</v>
+        <v>9819</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>12324</v>
+        <v>12602</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>12716</v>
+        <v>12089</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11544</v>
+        <v>11796</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>31141</v>
+        <v>30085</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>32858</v>
+        <v>32864</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>29639</v>
+        <v>28629</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>26235</v>
+        <v>25670</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>33826</v>
+        <v>34634</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>34339</v>
+        <v>34363</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>28464</v>
+        <v>28657</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>25731</v>
+        <v>25488</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>22172</v>
+        <v>21618</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>26302</v>
+        <v>26547</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>27535</v>
+        <v>27871</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>25247</v>
+        <v>24238</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>51502</v>
+        <v>52058</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>56044</v>
+        <v>55603</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>51479</v>
+        <v>50106</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>45952</v>
+        <v>44907</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11279</v>
+        <v>10976</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>31682</v>
+        <v>30822</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>19795</v>
+        <v>19538</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6838</v>
+        <v>6495</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5725</v>
+        <v>5830</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5546</v>
+        <v>5581</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1789</v>
+        <v>1808</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2277</v>
+        <v>2241</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>19260</v>
+        <v>19161</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>39496</v>
+        <v>39717</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>24289</v>
+        <v>24745</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>10875</v>
+        <v>10982</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>26993</v>
+        <v>26798</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>53783</v>
+        <v>53376</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>37406</v>
+        <v>36937</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>19268</v>
+        <v>19677</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14877</v>
+        <v>14979</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>16844</v>
+        <v>16444</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9075</v>
+        <v>9630</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>10073</v>
+        <v>9739</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>37989</v>
+        <v>38014</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>66024</v>
+        <v>65717</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>43672</v>
+        <v>43296</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>26174</v>
+        <v>26539</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>44346</v>
+        <v>43687</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>82516</v>
+        <v>83636</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>54532</v>
+        <v>53797</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>22395</v>
+        <v>22305</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>18534</v>
+        <v>17352</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>33318</v>
+        <v>34024</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>23937</v>
+        <v>24345</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>19055</v>
+        <v>18461</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>67176</v>
+        <v>66489</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>123715</v>
+        <v>124825</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>84735</v>
+        <v>84133</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>44929</v>
+        <v>44794</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>69959</v>
+        <v>71959</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>117496</v>
+        <v>118122</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>82900</v>
+        <v>81564</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>44168</v>
+        <v>44682</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>33782</v>
+        <v>32886</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>55184</v>
+        <v>56724</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>42825</v>
+        <v>43406</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>34414</v>
+        <v>33475</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>98661</v>
+        <v>98255</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>162828</v>
+        <v>165426</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>119268</v>
+        <v>118791</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>70754</v>
+        <v>72092</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12555</v>
+        <v>12410</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>18523</v>
+        <v>18693</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>13968</v>
+        <v>13683</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>8759</v>
+        <v>9551</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>11341</v>
+        <v>10808</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>15146</v>
+        <v>15083</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>16827</v>
+        <v>17142</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>17615</v>
+        <v>17671</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>26738</v>
+        <v>26331</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>38282</v>
+        <v>39618</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>35076</v>
+        <v>35090</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>30431</v>
+        <v>30254</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>27251</v>
+        <v>26860</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>37279</v>
+        <v>37087</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>31525</v>
+        <v>30879</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>23018</v>
+        <v>23710</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>23539</v>
+        <v>23884</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>31758</v>
+        <v>31814</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>34077</v>
+        <v>34556</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>32734</v>
+        <v>33069</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>46929</v>
+        <v>46432</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>64903</v>
+        <v>63422</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>60967</v>
+        <v>59774</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>53160</v>
+        <v>52172</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1838</v>
+        <v>1570</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>965</v>
+        <v>1267</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>980</v>
+        <v>963</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>8479</v>
+        <v>7859</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>16978</v>
+        <v>16725</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>12620</v>
+        <v>12233</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>4313</v>
+        <v>3813</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>12625</v>
+        <v>12437</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>20909</v>
+        <v>20579</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>14991</v>
+        <v>14119</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>5734</v>
+        <v>5983</v>
       </c>
     </row>
     <row r="27">
@@ -2827,31 +2827,31 @@
         <v>5570</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>5703</v>
+        <v>5896</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>20620</v>
+        <v>20566</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>32464</v>
+        <v>33037</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>26010</v>
+        <v>25590</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>13070</v>
+        <v>13299</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>25563</v>
+        <v>25668</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>37918</v>
+        <v>36862</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>29196</v>
+        <v>28884</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>17402</v>
+        <v>17502</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>124719</v>
+        <v>125035</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>193403</v>
+        <v>193998</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>143915</v>
+        <v>141283</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>81505</v>
+        <v>81528</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>79778</v>
+        <v>77509</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>122101</v>
+        <v>123468</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>102580</v>
+        <v>102760</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>81611</v>
+        <v>82045</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>212970</v>
+        <v>213610</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>331290</v>
+        <v>330324</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>251942</v>
+        <v>256546</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>172031</v>
+        <v>173000</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>167957</v>
+        <v>166903</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>246367</v>
+        <v>247068</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>188253</v>
+        <v>185753</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>118719</v>
+        <v>121605</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>110082</v>
+        <v>109796</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>160560</v>
+        <v>162106</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>137246</v>
+        <v>139081</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>112014</v>
+        <v>111752</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>265484</v>
+        <v>266265</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>398951</v>
+        <v>394870</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>311561</v>
+        <v>312269</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>223035</v>
+        <v>222537</v>
       </c>
     </row>
     <row r="32">
